--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H2">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I2">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J2">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>4.750193617408</v>
+        <v>7.988423075359498</v>
       </c>
       <c r="R2">
-        <v>19.000774469632</v>
+        <v>31.95369230143799</v>
       </c>
       <c r="S2">
-        <v>0.0002674835890604383</v>
+        <v>0.0006794772121221037</v>
       </c>
       <c r="T2">
-        <v>0.0001444141406974254</v>
+        <v>0.0003564836346997191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H3">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I3">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J3">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>0.4256108880213333</v>
+        <v>0.2749874085848333</v>
       </c>
       <c r="R3">
-        <v>2.553665328128</v>
+        <v>1.649924451509</v>
       </c>
       <c r="S3">
-        <v>2.396616581141946E-05</v>
+        <v>2.338980747404841E-05</v>
       </c>
       <c r="T3">
-        <v>1.940896591240665E-05</v>
+        <v>1.840698282706439E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H4">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I4">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J4">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>739.5048994172587</v>
+        <v>563.5965529924213</v>
       </c>
       <c r="R4">
-        <v>4437.029396503552</v>
+        <v>3381.579317954528</v>
       </c>
       <c r="S4">
-        <v>0.04164154991472573</v>
+        <v>0.04793824901063895</v>
       </c>
       <c r="T4">
-        <v>0.03372335104389494</v>
+        <v>0.03772577124789981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H5">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I5">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J5">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>20.750952579328</v>
+        <v>25.96146808690275</v>
       </c>
       <c r="R5">
-        <v>83.003810317312</v>
+        <v>103.845872347611</v>
       </c>
       <c r="S5">
-        <v>0.001168486954300261</v>
+        <v>0.002208223799850735</v>
       </c>
       <c r="T5">
-        <v>0.0006308650187256745</v>
+        <v>0.001158531341974945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H6">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I6">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J6">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>9.189749529258666</v>
+        <v>549.4893142417926</v>
       </c>
       <c r="R6">
-        <v>55.138497175552</v>
+        <v>3296.935885450755</v>
       </c>
       <c r="S6">
-        <v>0.0005174751567271645</v>
+        <v>0.04673831916633903</v>
       </c>
       <c r="T6">
-        <v>0.0004190765329950775</v>
+        <v>0.03678146727865094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H7">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I7">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J7">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>1061.031234620928</v>
+        <v>216.200273471489</v>
       </c>
       <c r="R7">
-        <v>6366.187407725568</v>
+        <v>1297.201640828934</v>
       </c>
       <c r="S7">
-        <v>0.05974671047124544</v>
+        <v>0.01838950662635413</v>
       </c>
       <c r="T7">
-        <v>0.04838579003581344</v>
+        <v>0.01447191615600327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H8">
         <v>121.239368</v>
       </c>
       <c r="I8">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J8">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>12.82158853659467</v>
+        <v>33.37271215378399</v>
       </c>
       <c r="R8">
-        <v>76.92953121956801</v>
+        <v>200.236272922704</v>
       </c>
       <c r="S8">
-        <v>0.0007219841537945348</v>
+        <v>0.002838607469996338</v>
       </c>
       <c r="T8">
-        <v>0.0005846978586628551</v>
+        <v>0.002233887517499758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H9">
         <v>121.239368</v>
       </c>
       <c r="I9">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J9">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>1.148796895963555</v>
@@ -1013,10 +1013,10 @@
         <v>10.339172063672</v>
       </c>
       <c r="S9">
-        <v>6.468879830660379E-05</v>
+        <v>9.771406757005228E-05</v>
       </c>
       <c r="T9">
-        <v>7.858219945110147E-05</v>
+        <v>0.0001153464708326594</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H10">
         <v>121.239368</v>
       </c>
       <c r="I10">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J10">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>1996.050751779183</v>
+        <v>2354.500425984824</v>
       </c>
       <c r="R10">
-        <v>17964.45676601265</v>
+        <v>21190.50383386342</v>
       </c>
       <c r="S10">
-        <v>0.1123976961857013</v>
+        <v>0.2002684848181351</v>
       </c>
       <c r="T10">
-        <v>0.1365376759303229</v>
+        <v>0.2364067274777511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H11">
         <v>121.239368</v>
       </c>
       <c r="I11">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J11">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>56.01038550081467</v>
+        <v>108.457525769548</v>
       </c>
       <c r="R11">
-        <v>336.062313004888</v>
+        <v>650.745154617288</v>
       </c>
       <c r="S11">
-        <v>0.003153947006183649</v>
+        <v>0.00922515201665596</v>
       </c>
       <c r="T11">
-        <v>0.002554219578310172</v>
+        <v>0.007259880823561721</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H12">
         <v>121.239368</v>
       </c>
       <c r="I12">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J12">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>24.80471254618311</v>
+        <v>2295.565538126716</v>
       </c>
       <c r="R12">
-        <v>223.242412915648</v>
+        <v>20660.08984314045</v>
       </c>
       <c r="S12">
-        <v>0.001396754337160246</v>
+        <v>0.1952556164559078</v>
       </c>
       <c r="T12">
-        <v>0.001696739323965963</v>
+        <v>0.23048929216152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H13">
         <v>121.239368</v>
       </c>
       <c r="I13">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J13">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>2863.905560592248</v>
+        <v>903.2057298503411</v>
       </c>
       <c r="R13">
-        <v>25775.15004533023</v>
+        <v>8128.85156865307</v>
       </c>
       <c r="S13">
-        <v>0.1612666345367548</v>
+        <v>0.07682463804207082</v>
       </c>
       <c r="T13">
-        <v>0.1959023381437812</v>
+        <v>0.09068756517372958</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H14">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I14">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J14">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>1.588549271800334</v>
+        <v>1.591817576911</v>
       </c>
       <c r="R14">
-        <v>9.531295630802001</v>
+        <v>9.550905461465998</v>
       </c>
       <c r="S14">
-        <v>8.945127185202119E-05</v>
+        <v>0.0001353964054185718</v>
       </c>
       <c r="T14">
-        <v>7.244198758610154E-05</v>
+        <v>0.0001065523652621383</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H15">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I15">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J15">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>0.1423318543814444</v>
+        <v>0.05479551925144444</v>
       </c>
       <c r="R15">
-        <v>1.280986689433</v>
+        <v>0.4931596732629999</v>
       </c>
       <c r="S15">
-        <v>8.014712307316553E-06</v>
+        <v>4.660783023948564E-06</v>
       </c>
       <c r="T15">
-        <v>9.736055353689451E-06</v>
+        <v>5.501816539812163E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H16">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I16">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J16">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>247.3035973011719</v>
+        <v>112.3053812844551</v>
       </c>
       <c r="R16">
-        <v>2225.732375710547</v>
+        <v>1010.748431560096</v>
       </c>
       <c r="S16">
-        <v>0.01392567527168927</v>
+        <v>0.009552441910199822</v>
       </c>
       <c r="T16">
-        <v>0.01691653300629399</v>
+        <v>0.01127617025445814</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H17">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I17">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J17">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>6.939487790192834</v>
+        <v>5.1732264094295</v>
       </c>
       <c r="R17">
-        <v>41.636926741157</v>
+        <v>31.039358456577</v>
       </c>
       <c r="S17">
-        <v>0.0003907628298685489</v>
+        <v>0.0004400229463557061</v>
       </c>
       <c r="T17">
-        <v>0.0003164587320488469</v>
+        <v>0.0003462830904474247</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H18">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I18">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J18">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>3.073215767296889</v>
+        <v>109.4942944913435</v>
       </c>
       <c r="R18">
-        <v>27.658941905672</v>
+        <v>985.4486504220919</v>
       </c>
       <c r="S18">
-        <v>0.0001730529004925601</v>
+        <v>0.009313337220926622</v>
       </c>
       <c r="T18">
-        <v>0.0002102199746800633</v>
+        <v>0.01099391936926773</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H19">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I19">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J19">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>354.8277251136971</v>
+        <v>43.08126800474866</v>
       </c>
       <c r="R19">
-        <v>3193.449526023273</v>
+        <v>387.7314120427379</v>
       </c>
       <c r="S19">
-        <v>0.01998036312956679</v>
+        <v>0.003664395288332229</v>
       </c>
       <c r="T19">
-        <v>0.02427160376532713</v>
+        <v>0.004325631659350661</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H20">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I20">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J20">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>19.0965931304715</v>
+        <v>22.1341952516715</v>
       </c>
       <c r="R20">
-        <v>76.386372521886</v>
+        <v>88.536781006686</v>
       </c>
       <c r="S20">
-        <v>0.001075329908794893</v>
+        <v>0.001882684622521102</v>
       </c>
       <c r="T20">
-        <v>0.0005805696165896993</v>
+        <v>0.0009877391695499338</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H21">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I21">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J21">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>1.7110287737865</v>
+        <v>0.7619307259954999</v>
       </c>
       <c r="R21">
-        <v>10.266172642719</v>
+        <v>4.571584355973</v>
       </c>
       <c r="S21">
-        <v>9.634809741667498E-05</v>
+        <v>6.480810551039755E-05</v>
       </c>
       <c r="T21">
-        <v>7.80273721378682E-05</v>
+        <v>5.100177444846614E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H22">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I22">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J22">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>2972.936541030404</v>
+        <v>1561.604340358736</v>
       </c>
       <c r="R22">
-        <v>17837.61924618242</v>
+        <v>9369.626042152417</v>
       </c>
       <c r="S22">
-        <v>0.1674061733251316</v>
+        <v>0.1328265358024969</v>
       </c>
       <c r="T22">
-        <v>0.135573655676109</v>
+        <v>0.104529965293974</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H23">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I23">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J23">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>83.42238872641275</v>
+        <v>71.93362172166675</v>
       </c>
       <c r="R23">
-        <v>333.689554905651</v>
+        <v>287.734486886667</v>
       </c>
       <c r="S23">
-        <v>0.004697517983848392</v>
+        <v>0.006118511286169522</v>
       </c>
       <c r="T23">
-        <v>0.002536185585930975</v>
+        <v>0.003210040165192481</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H24">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I24">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J24">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>36.944369401716</v>
+        <v>1522.516228221622</v>
       </c>
       <c r="R24">
-        <v>221.666216410296</v>
+        <v>9135.097369329733</v>
       </c>
       <c r="S24">
-        <v>0.002080338891225632</v>
+        <v>0.1295017893273176</v>
       </c>
       <c r="T24">
-        <v>0.001684759545759844</v>
+        <v>0.1019135029164675</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H25">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I25">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J25">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>4265.527559134307</v>
+        <v>599.0442696060329</v>
       </c>
       <c r="R25">
-        <v>25593.16535480584</v>
+        <v>3594.265617636197</v>
       </c>
       <c r="S25">
-        <v>0.2401920242939556</v>
+        <v>0.05095335167026209</v>
       </c>
       <c r="T25">
-        <v>0.1945191754340626</v>
+        <v>0.04009855447576933</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H26">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I26">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J26">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>3.725629984433334</v>
+        <v>2.357303335186</v>
       </c>
       <c r="R26">
-        <v>22.3537799066</v>
+        <v>14.143820011116</v>
       </c>
       <c r="S26">
-        <v>0.0002097903706693938</v>
+        <v>0.0002005068939399204</v>
       </c>
       <c r="T26">
-        <v>0.0001698984387036692</v>
+        <v>0.0001577921048540093</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H27">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I27">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J27">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>0.3338113798777778</v>
+        <v>0.08114601959311112</v>
       </c>
       <c r="R27">
-        <v>3.0043024189</v>
+        <v>0.730314176338</v>
       </c>
       <c r="S27">
-        <v>1.879693190435615E-05</v>
+        <v>6.902097028136112E-06</v>
       </c>
       <c r="T27">
-        <v>2.283400357780485E-05</v>
+        <v>8.147573357022835E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H28">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I28">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J28">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>580.0019638794556</v>
+        <v>166.3116764767218</v>
       </c>
       <c r="R28">
-        <v>5220.017674915101</v>
+        <v>1496.805088290496</v>
       </c>
       <c r="S28">
-        <v>0.03265993335346067</v>
+        <v>0.01414609531940328</v>
       </c>
       <c r="T28">
-        <v>0.03967440212255923</v>
+        <v>0.01669874370940279</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H29">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I29">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J29">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>16.27520420468334</v>
+        <v>7.660968219917001</v>
       </c>
       <c r="R29">
-        <v>97.65122522810002</v>
+        <v>45.965809319502</v>
       </c>
       <c r="S29">
-        <v>0.000916457387632905</v>
+        <v>0.0006516246422002355</v>
       </c>
       <c r="T29">
-        <v>0.0007421917354950818</v>
+        <v>0.0005128064269866204</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H30">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I30">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J30">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>7.207623341955557</v>
+        <v>162.1487721533769</v>
       </c>
       <c r="R30">
-        <v>64.86861007760001</v>
+        <v>1459.338949380392</v>
       </c>
       <c r="S30">
-        <v>0.000405861553313706</v>
+        <v>0.01379200808625681</v>
       </c>
       <c r="T30">
-        <v>0.0004930296182171565</v>
+        <v>0.01628076179824076</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H31">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I31">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J31">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>832.1786648101001</v>
+        <v>63.79852705779866</v>
       </c>
       <c r="R31">
-        <v>7489.607983290901</v>
+        <v>574.186743520188</v>
       </c>
       <c r="S31">
-        <v>0.04686001328181444</v>
+        <v>0.005426558520221938</v>
       </c>
       <c r="T31">
-        <v>0.05692427447082273</v>
+        <v>0.006405775438892253</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H32">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I32">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J32">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N32">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O32">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P32">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q32">
-        <v>3.972679086886001</v>
+        <v>1.434823526965</v>
       </c>
       <c r="R32">
-        <v>23.836074521316</v>
+        <v>8.608941161789998</v>
       </c>
       <c r="S32">
-        <v>0.0002237017153261738</v>
+        <v>0.0001220428463530655</v>
       </c>
       <c r="T32">
-        <v>0.000181164521746061</v>
+        <v>9.604356852784778E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H33">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I33">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J33">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O33">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P33">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q33">
-        <v>0.3559466434793334</v>
+        <v>0.04939127531611111</v>
       </c>
       <c r="R33">
-        <v>3.203519791314</v>
+        <v>0.444521477845</v>
       </c>
       <c r="S33">
-        <v>2.004336946665781E-05</v>
+        <v>4.201110248963142E-06</v>
       </c>
       <c r="T33">
-        <v>2.434814215647954E-05</v>
+        <v>4.95919628409093E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H34">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I34">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J34">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N34">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O34">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P34">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q34">
-        <v>618.4622954732808</v>
+        <v>101.2291895811378</v>
       </c>
       <c r="R34">
-        <v>5566.160659259527</v>
+        <v>911.06270623024</v>
       </c>
       <c r="S34">
-        <v>0.03482563613523157</v>
+        <v>0.00861032607726225</v>
       </c>
       <c r="T34">
-        <v>0.0423052391825136</v>
+        <v>0.01016405058584427</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H35">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I35">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J35">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N35">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O35">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P35">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q35">
-        <v>17.354424258151</v>
+        <v>4.6630135702925</v>
       </c>
       <c r="R35">
-        <v>104.126545548906</v>
+        <v>27.978081421755</v>
       </c>
       <c r="S35">
-        <v>0.0009772283112073946</v>
+        <v>0.0003966253953928572</v>
       </c>
       <c r="T35">
-        <v>0.0007914069830821919</v>
+        <v>0.0003121306941014471</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H36">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I36">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J36">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N36">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O36">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P36">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q36">
-        <v>7.685565833530668</v>
+        <v>98.69534806210888</v>
       </c>
       <c r="R36">
-        <v>69.17009250177601</v>
+        <v>888.2581325589799</v>
       </c>
       <c r="S36">
-        <v>0.0004327745137754646</v>
+        <v>0.008394803244399333</v>
       </c>
       <c r="T36">
-        <v>0.0005257227533841087</v>
+        <v>0.009909636878864234</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H37">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I37">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J37">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N37">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O37">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P37">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q37">
-        <v>887.3610079522263</v>
+        <v>38.83234976249666</v>
       </c>
       <c r="R37">
-        <v>7986.249071570036</v>
+        <v>349.49114786247</v>
       </c>
       <c r="S37">
-        <v>0.04996733319027634</v>
+        <v>0.003302991905643936</v>
       </c>
       <c r="T37">
-        <v>0.06069896250332873</v>
+        <v>0.00389901340696654</v>
       </c>
     </row>
   </sheetData>
